--- a/自定义环境信息.xlsx
+++ b/自定义环境信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="数据库" sheetId="3" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="zookeeper" sheetId="6" r:id="rId5"/>
     <sheet name="phoenix" sheetId="7" r:id="rId6"/>
     <sheet name="presto" sheetId="5" r:id="rId7"/>
+    <sheet name="httpd" sheetId="8" r:id="rId8"/>
+    <sheet name="ambari" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
   <si>
     <t>192.168.133.129</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +259,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"># cd /scsi/soft/hadoop/hadoop-2.7.3
+# ./sbin/stop-all.sh </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/scsi/soft/hadoop/hadoop-2.7.3
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.133.129:16610/</t>
+  </si>
+  <si>
+    <t>http://abloz.com/hbase/book.html#standalone_dist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选型与hbase搭配的版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://phoenix.apache.org/download.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/scsi/soft/hbase/hbase-1.4.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presto集群访问地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.133.129:8090/ui/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.133.129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.133.131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.133.130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t># cd /scsi/soft/hadoop/hadoop-2.7.3
 格式化
 # ./bin/hadoop namenode -format
@@ -265,65 +324,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"># cd /scsi/soft/hadoop/hadoop-2.7.3
-# ./sbin/stop-all.sh </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">/scsi/soft/hadoop/hadoop-2.7.3
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.133.129:16610/</t>
-  </si>
-  <si>
-    <t>http://abloz.com/hbase/book.html#standalone_dist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选型与hbase搭配的版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://phoenix.apache.org/download.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"># cd /scsi/soft/hbase/hbase-1.4.12
 # ./bin/start-hbase.sh </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/scsi/soft/hbase/hbase-1.4.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>presto集群访问地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.133.129:8090/ui/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.133.129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.133.131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.133.130</t>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/scsi/soft/presto/presto-server-0.225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master/slave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd /scsi/soft/presto/presto-server-0.225
+./bin/launcher start
+./bin/launcher run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/www/html/file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装httpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">yum install httpd </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service httpd restart /start/stop/status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.133.132/file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.133.132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.133.132/hdp/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambari-server  setup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambari-server  start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambari-server  stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambari-server  status</t>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.133.128:8080/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum -y install ambari-agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambari-agent status</t>
+  </si>
+  <si>
+    <t>ambari-agent stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/ambari-server/ambari-server.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>agent</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/ambari-agent/ambari-agent.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ambari-agent start </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum -y install ambari-agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/ambari-server/conf/ambari.properties</t>
+  </si>
+  <si>
+    <t>server配置信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +524,25 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -447,7 +632,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +666,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -496,7 +690,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,7 +1069,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -891,21 +1088,21 @@
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="31.2" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="53.4" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -926,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>51</v>
@@ -954,7 +1151,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -978,7 +1175,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1198,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1052,7 +1249,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1067,24 +1264,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="31.2" customHeight="1">
@@ -1110,7 +1307,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" customHeight="1">
@@ -1118,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>30</v>
@@ -1268,10 +1465,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1">
       <c r="A1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1400,40 +1597,82 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="63.6" customHeight="1">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1444,4 +1683,207 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="35.4" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.8" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33.6" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="35.4" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.4" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="54" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="57" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/自定义环境信息.xlsx
+++ b/自定义环境信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="数据库" sheetId="3" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="presto" sheetId="5" r:id="rId7"/>
     <sheet name="httpd" sheetId="8" r:id="rId8"/>
     <sheet name="ambari" sheetId="9" r:id="rId9"/>
+    <sheet name="nexus" sheetId="10" r:id="rId10"/>
+    <sheet name="jenkins" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <t>192.168.133.129</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,14 +94,6 @@
   </si>
   <si>
     <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先启动hadoop
-# hdfs dfsadmin -safemode leave
-# hive --version
-# hive --service metastore &amp;
-# hive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,14 +307,6 @@
   </si>
   <si>
     <t>192.168.133.130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># cd /scsi/soft/hadoop/hadoop-2.7.3
-格式化
-# ./bin/hadoop namenode -format
-# ./sbin/start-all.sh
-# jps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,6 +476,65 @@
   </si>
   <si>
     <t>server配置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># cd /scsi/soft/hadoop/hadoop-2.7.3
+格式化
+# ./bin/hadoop namenode -format
+# ./sbin/start-all.sh
+# jps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先启动hadoop
+# hdfs dfsadmin -safemode leave  #关闭安全模式
+# hive --version
+# hive --service metastore &amp; #开启端口
+# hive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.152.172:8083/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/nexus-3.19.1-01</t>
+  </si>
+  <si>
+    <t>安装路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./bin/nexus  status、start、stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.152.172:8182/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sics/52eDCA49197</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +677,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,6 +720,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -690,11 +741,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1064,11 +1115,123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.8" customHeight="1">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1088,25 +1251,25 @@
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="31.2" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="53.4" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
@@ -1115,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" ht="37.200000000000003" customHeight="1">
@@ -1123,13 +1286,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51.6" customHeight="1">
@@ -1148,34 +1311,34 @@
     </row>
     <row r="6" spans="1:4" ht="87.6" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="106.8" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45.6" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1361,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1218,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="76.8" customHeight="1">
@@ -1226,15 +1389,15 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="70.2" customHeight="1">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1264,24 +1427,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="31.2" customHeight="1">
@@ -1293,21 +1456,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" customHeight="1">
@@ -1315,32 +1478,32 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75.599999999999994" customHeight="1">
       <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1390,13 +1553,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.8" customHeight="1">
@@ -1404,41 +1567,41 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.6" customHeight="1">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.6" customHeight="1">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1465,10 +1628,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1">
       <c r="A1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1481,28 +1644,28 @@
     </row>
     <row r="3" spans="1:3" ht="19.8" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1613,66 +1776,66 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="63.6" customHeight="1">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1853,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1705,26 +1868,26 @@
         <v>5</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="35.4" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.8" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33.6" customHeight="1">
@@ -1732,18 +1895,18 @@
         <v>6</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35.4" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1761,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1775,45 +1938,45 @@
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="23.4" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="54" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>100</v>
+        <v>84</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -1821,56 +1984,56 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>89</v>
+      <c r="B5" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="57" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>

--- a/自定义环境信息.xlsx
+++ b/自定义环境信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数据库" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="ambari" sheetId="9" r:id="rId9"/>
     <sheet name="nexus" sheetId="10" r:id="rId10"/>
     <sheet name="jenkins" sheetId="11" r:id="rId11"/>
+    <sheet name="password" sheetId="12" r:id="rId12"/>
+    <sheet name="gitlib" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
   <si>
     <t>192.168.133.129</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,9 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.133.129:16610/</t>
-  </si>
-  <si>
     <t>http://abloz.com/hbase/book.html#standalone_dist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,11 +306,6 @@
   </si>
   <si>
     <t>192.168.133.130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"># cd /scsi/soft/hbase/hbase-1.4.12
-# ./bin/start-hbase.sh </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,6 +473,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://192.168.152.172:8083/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/nexus-3.19.1-01</t>
+  </si>
+  <si>
+    <t>安装路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./bin/nexus  status、start、stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.152.172:8182/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sics/52eDCA49197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52eDCA49197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.152.172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ sudo /opt/gitlab/bin/gitlab-ctl start
+fail: alertmanager: runsv not running
+fail: gitaly: runsv not running
+fail: gitlab-exporter: runsv not running
+fail: gitlab-workhorse: runsv not running
+fail: grafana: runsv not running
+fail: logrotate: runsv not running
+fail: nginx: runsv not running
+fail: node-exporter: runsv not running
+fail: postgres-exporter: runsv not running
+fail: postgresql: runsv not running
+fail: prometheus: runsv not running
+fail: redis: runsv not running
+fail: redis-exporter: runsv not running
+fail: sidekiq: runsv not running
+fail: unicorn: runsv not running
+解决方法：https://gitlab.com/gitlab-org/omnibus-gitlab/issues/1504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用sics用户执行
+sudo /opt/gitlab/bin/gitlab-ctl  stop
+sudo /etc/init.d/apache2 stop
+sudo /opt/gitlab/bin/gitlab-ctl  start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t># cd /scsi/soft/hadoop/hadoop-2.7.3
 格式化
 # ./bin/hadoop namenode -format
@@ -487,6 +571,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ip地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>先启动hadoop
 # hdfs dfsadmin -safemode leave  #关闭安全模式
 # hive --version
@@ -495,46 +583,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.152.172:8083/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/nexus-3.19.1-01</t>
-  </si>
-  <si>
-    <t>安装路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./bin/nexus  status、start、stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.152.172:8182/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/jenkins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sics/52eDCA49197</t>
+    <t>http://192.168.133.129:16610/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># 先启动zookeeper
+# cd /scsi/soft/hbase/hbase-1.4.12
+# ./bin/start-hbase.sh </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +732,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +800,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1132,37 +1193,37 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.8" customHeight="1">
       <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1179,17 +1240,17 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -1197,10 +1258,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1208,10 +1269,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1227,20 +1288,92 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="107.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="132.6" customHeight="1">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="262.8" customHeight="1">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="55.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="58" style="3" customWidth="1"/>
-    <col min="4" max="4" width="57" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
@@ -1251,7 +1384,7 @@
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="19"/>
@@ -1281,7 +1414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" ht="37.200000000000003" customHeight="1">
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="19.8" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="51.6" customHeight="1">
+    <row r="5" spans="1:4" ht="20.399999999999999" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1447,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1333,7 +1466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45.6" customHeight="1">
+    <row r="8" spans="1:4" ht="34.799999999999997" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1367,36 +1500,39 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="99.88671875" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.2" customHeight="1">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="76.8" customHeight="1">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>105</v>
+      <c r="B3" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="70.2" customHeight="1">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1411,15 +1547,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="4" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="45" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
@@ -1429,8 +1565,8 @@
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>56</v>
+      <c r="B1" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -1441,7 +1577,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
@@ -1470,21 +1606,21 @@
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="72" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="55.8" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75.599999999999994" customHeight="1">
+    <row r="6" spans="1:5" ht="36" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -1628,10 +1764,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1">
       <c r="A1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1776,66 +1912,66 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="63.6" customHeight="1">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1868,26 +2004,26 @@
         <v>5</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="35.4" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.8" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33.6" customHeight="1">
@@ -1895,18 +2031,18 @@
         <v>6</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35.4" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1939,44 +2075,44 @@
         <v>5</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="23.4" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="54" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -1985,10 +2121,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1997,43 +2133,43 @@
         <v>40</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="57" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>

--- a/自定义环境信息.xlsx
+++ b/自定义环境信息.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="数据库" sheetId="3" r:id="rId1"/>
-    <sheet name="Hadoop" sheetId="1" r:id="rId2"/>
-    <sheet name="Hive" sheetId="2" r:id="rId3"/>
-    <sheet name="HBase" sheetId="4" r:id="rId4"/>
-    <sheet name="zookeeper" sheetId="6" r:id="rId5"/>
-    <sheet name="phoenix" sheetId="7" r:id="rId6"/>
-    <sheet name="presto" sheetId="5" r:id="rId7"/>
-    <sheet name="httpd" sheetId="8" r:id="rId8"/>
-    <sheet name="ambari" sheetId="9" r:id="rId9"/>
+    <sheet name="ambari" sheetId="9" r:id="rId1"/>
+    <sheet name="数据库" sheetId="3" r:id="rId2"/>
+    <sheet name="Hadoop" sheetId="1" r:id="rId3"/>
+    <sheet name="Hive" sheetId="2" r:id="rId4"/>
+    <sheet name="HBase" sheetId="4" r:id="rId5"/>
+    <sheet name="zookeeper" sheetId="6" r:id="rId6"/>
+    <sheet name="phoenix" sheetId="7" r:id="rId7"/>
+    <sheet name="presto" sheetId="5" r:id="rId8"/>
+    <sheet name="httpd" sheetId="8" r:id="rId9"/>
     <sheet name="nexus" sheetId="10" r:id="rId10"/>
     <sheet name="jenkins" sheetId="11" r:id="rId11"/>
     <sheet name="password" sheetId="12" r:id="rId12"/>
     <sheet name="gitlib" sheetId="13" r:id="rId13"/>
+    <sheet name="kylin" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
   <si>
     <t>192.168.133.129</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"># ./bin/stop-hbase.sh </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hbase shell练习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,21 +252,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"># cd /scsi/soft/hadoop/hadoop-2.7.3
-# ./sbin/stop-all.sh </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">/scsi/soft/hadoop/hadoop-2.7.3
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>访问主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://abloz.com/hbase/book.html#standalone_dist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -485,9 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/opt/nexus-3.19.1-01</t>
-  </si>
-  <si>
     <t>安装路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -563,6 +548,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ip地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.133.129:16610/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/nexus-3.19.1-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo  ./bin/nexus  status、start、stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先启动hadoop
+# hdfs dfsadmin -safemode leave  #关闭安全模式
+# hive --service metastore &amp; #开启端口
+# hive --version
+# hive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭hive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[root@coordinate-presto catalog]# </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ps -ef | grep hive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+root     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55104</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 46571  3 15:55 pts/0    00:00:08 /scsi/soft/jdk1.8.0_231/bin/java -Xmx256m -Djava.net.preferIPv4Stack=true -Dhadoop.log.dir=/scsi/soft/hadoop/hadoop-2.7.3/logs -Dhadoop.log.file=hadoop.log -Dhadoop.home.dir=/scsi/soft/hadoop/hadoop-2.7.3 -Dhadoop.id.str=root -Dhadoop.root.logger=INFO,console -Djava.library.path=/scsi/soft/hadoop/hadoop-2.7.3/lib/native -Dhadoop.policy.file=hadoop-policy.xml -Djava.net.preferIPv4Stack=true -Xmx512m -Dlog4j.configurationFile=hive-log4j2.properties -Djava.util.logging.config.file=/scsi/soft/hive/apache-hive-2.1.1-bin/conf/parquet-logging.properties -Dhadoop.security.logger=INFO,NullAppender org.apache.hadoop.util.RunJar /scsi/soft/hive/apache-hive-2.1.1-bin/lib/hive-metastore-2.1.1.jar org.apache.hadoop.hive.metastore.HiveMetaStore
+root     55470 46571  0 15:59 pts/0    00:00:00 grep --color=auto hive
+[root@coordinate-presto catalog]# </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kill -9 55104</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># ./bin/stop-hbase.sh </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># 先启动zookeeper
+# cd /scsi/soft/hbase/hbase-1.4.12
+# ./bin/start-hbase.sh </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://abloz.com/hbase/book.html#standalone_dist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbase version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># cd /scsi/soft/hadoop/hadoop-2.7.3
+# ./sbin/stop-all.sh </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t># cd /scsi/soft/hadoop/hadoop-2.7.3
 格式化
 # ./bin/hadoop namenode -format
@@ -571,25 +679,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ip地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先启动hadoop
-# hdfs dfsadmin -safemode leave  #关闭安全模式
-# hive --version
-# hive --service metastore &amp; #开启端口
-# hive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.133.129:16610/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"># 先启动zookeeper
-# cd /scsi/soft/hbase/hbase-1.4.12
-# ./bin/start-hbase.sh </t>
+    <t>/scsi/soft/hbase/hbase-1.4.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/scsi/soft/kylin/apache-kylin-2.1.0-bin-hbase1x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./bin/kylin.sh start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./bin/kylin.sh stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.133.129:7070/kylin</t>
+  </si>
+  <si>
+    <t>账号/密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/KYLIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +714,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,8 +764,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,8 +786,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -722,6 +853,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -732,7 +874,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,26 +929,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1103,76 +1248,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.2" customHeight="1">
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:4" ht="22.8" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.4" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>33306</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="C5" s="2">
-        <v>123456</v>
-      </c>
+      <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="54" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="57" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1180,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1193,37 +1394,37 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.8" customHeight="1">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1247,32 +1448,32 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+        <v>104</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+        <v>102</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1304,10 +1505,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1332,26 +1533,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="132.6" customHeight="1">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="262.8" customHeight="1">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1360,12 +1561,258 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22.8" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="22.2" customHeight="1">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>33306</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C5" s="2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1384,25 +1831,25 @@
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>51</v>
+      <c r="B1" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="31.2" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="53.4" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
@@ -1419,13 +1866,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.399999999999999" customHeight="1">
@@ -1447,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1471,7 +1918,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1489,9 +1936,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1500,13 +1947,13 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="2" max="2" width="90.44140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1525,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="70.2" customHeight="1">
@@ -1533,7 +1980,15 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="210.6" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1543,12 +1998,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1563,10 +2018,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>123</v>
+        <v>53</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -1574,10 +2029,10 @@
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
@@ -1603,10 +2058,10 @@
         <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="55.8" customHeight="1">
@@ -1639,7 +2094,21 @@
         <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="49.2" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1657,12 +2126,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1689,13 +2158,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.8" customHeight="1">
@@ -1703,41 +2172,41 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.6" customHeight="1">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.6" customHeight="1">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +2216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1764,10 +2233,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1783,25 +2252,25 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1894,12 +2363,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1912,66 +2381,66 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="63.6" customHeight="1">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +2453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2004,26 +2473,26 @@
         <v>5</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="35.4" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.8" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33.6" customHeight="1">
@@ -2031,18 +2500,18 @@
         <v>6</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35.4" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2054,135 +2523,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="22.8" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="23.4" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="54" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="57" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
 </file>
--- a/自定义环境信息.xlsx
+++ b/自定义环境信息.xlsx
@@ -4,30 +4,32 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ambari" sheetId="9" r:id="rId1"/>
-    <sheet name="数据库" sheetId="3" r:id="rId2"/>
-    <sheet name="Hadoop" sheetId="1" r:id="rId3"/>
-    <sheet name="Hive" sheetId="2" r:id="rId4"/>
-    <sheet name="HBase" sheetId="4" r:id="rId5"/>
-    <sheet name="zookeeper" sheetId="6" r:id="rId6"/>
-    <sheet name="phoenix" sheetId="7" r:id="rId7"/>
-    <sheet name="presto" sheetId="5" r:id="rId8"/>
-    <sheet name="httpd" sheetId="8" r:id="rId9"/>
-    <sheet name="nexus" sheetId="10" r:id="rId10"/>
-    <sheet name="jenkins" sheetId="11" r:id="rId11"/>
-    <sheet name="password" sheetId="12" r:id="rId12"/>
-    <sheet name="gitlib" sheetId="13" r:id="rId13"/>
-    <sheet name="kylin" sheetId="14" r:id="rId14"/>
+    <sheet name="password" sheetId="12" r:id="rId2"/>
+    <sheet name="nexus" sheetId="10" r:id="rId3"/>
+    <sheet name="gitlib" sheetId="13" r:id="rId4"/>
+    <sheet name="jenkins" sheetId="11" r:id="rId5"/>
+    <sheet name="Jira" sheetId="15" r:id="rId6"/>
+    <sheet name="confluence" sheetId="16" r:id="rId7"/>
+    <sheet name="数据库" sheetId="3" r:id="rId8"/>
+    <sheet name="Hadoop" sheetId="1" r:id="rId9"/>
+    <sheet name="Hive" sheetId="2" r:id="rId10"/>
+    <sheet name="HBase" sheetId="4" r:id="rId11"/>
+    <sheet name="zookeeper" sheetId="6" r:id="rId12"/>
+    <sheet name="phoenix" sheetId="7" r:id="rId13"/>
+    <sheet name="presto" sheetId="5" r:id="rId14"/>
+    <sheet name="httpd" sheetId="8" r:id="rId15"/>
+    <sheet name="kylin" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="142">
   <si>
     <t>192.168.133.129</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,18 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>52eDCA49197</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.152.172</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,13 +528,6 @@
 fail: sidekiq: runsv not running
 fail: unicorn: runsv not running
 解决方法：https://gitlab.com/gitlab-org/omnibus-gitlab/issues/1504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用sics用户执行
-sudo /opt/gitlab/bin/gitlab-ctl  stop
-sudo /etc/init.d/apache2 stop
-sudo /opt/gitlab/bin/gitlab-ctl  start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,6 +690,66 @@
   </si>
   <si>
     <t>admin/KYLIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用sics用户执行
+sudo /opt/gitlab/bin/gitlab-ctl  stop
+sudo /etc/init.d/apache2 stop    【systemctl stop apache2.service 】
+sudo /opt/gitlab/bin/gitlab-ctl  start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.152.172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source /opt/env.sh
+sudo /opt/atlassian/jira/bin/startup.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source /opt/env.sh
+sudo /opt/atlassian/confluence//bin/startup.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.152.172:8081</t>
+  </si>
+  <si>
+    <t>http://192.168.152.172:8090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitlab
+/etc/init.d/apache2 stop
+sudo /opt/gitlab/bin/gitlab-ctl start
+jenkins容器启动:
+sudo ~/docker/dockerd &amp;
+sudo docker ps -a 
+sudo docker start 695be99b02cf
+sudo docker exec -it 695be99b02cf /bin/bash
+source /etc/profile &amp;&amp; /var/local/java/tomcat8/bin/startup.sh
+开始confluence
+source /opt/env.sh
+sudo /opt/atlassian/confluence//bin/startup.sh
+开始Jira
+source /opt/env.sh
+sudo /opt/atlassian/jira/bin/startup.sh
+OpenLDAP搭建
+https://www.cnblogs.com/lemon-le/p/6266921.html
+https://blog.csdn.net/yangxuzhong/article/details/88752056
+sudo /opt/nexus-3.19.1-01/bin/nexus start
+解决set uid的xorg-server问题：
+sudo apt-get install xserver-xorg-legacy
+vim /etc/X11/Xwrapper.config
+        allowed_users=console
+        needs_root_rights=yes
+jira备份:
+https://www.cnblogs.com/kevingrace/p/8862531.html
+gitlab备份：
+openldap备份：
+http://www.361way.com/openldap-bak-imp-move/2366.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,6 +966,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -946,12 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1264,11 +1307,11 @@
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="23.4" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -1379,53 +1422,421 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="90.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" customHeight="1">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>99</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.2" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="76.8" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="70.2" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="210.6" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.2" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="55.8" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="49.2" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" location="standalone_dist"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.8" customHeight="1">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39.6" customHeight="1">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="39.6" customHeight="1">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="42" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.8" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="42" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1436,62 +1847,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1499,69 +1857,159 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>109</v>
+        <v>57</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="63.6" customHeight="1">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="107.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="132.6" customHeight="1">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="262.8" customHeight="1">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>114</v>
+    <row r="1" spans="1:3" ht="27" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="35.4" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.8" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33.6" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="35.4" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -1576,151 +2024,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.8" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>128</v>
+      <c r="A1" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="17" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="25"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="25"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="25"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="25"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="25"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="25"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="25"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="25"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="25"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="25"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="3"/>
     </row>
   </sheetData>
@@ -1733,6 +2181,292 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="95.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="409.2" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.8" customHeight="1">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="107.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="132.6" customHeight="1">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="262.8" customHeight="1">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="54.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="53.4" customHeight="1">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="58.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="88.8" customHeight="1">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1807,7 +2541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -1831,21 +2565,21 @@
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="31.2" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="53.4" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -1894,7 +2628,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1918,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1934,593 +2668,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="90.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.2" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="76.8" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="70.2" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="210.6" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="15.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.2" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="55.8" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="49.2" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" location="standalone_dist"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.8" customHeight="1">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="39.6" customHeight="1">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="39.6" customHeight="1">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="56.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="19.8" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="42" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="63.6" customHeight="1">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="35.4" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.8" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="33.6" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="35.4" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="C1" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-</worksheet>
 </file>